--- a/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a5_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a5_firstrun.xlsx
@@ -452,22 +452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6885245901639344</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C3">
-        <v>0.4947368421052631</v>
+        <v>0.5148305084745762</v>
       </c>
       <c r="D3">
-        <v>0.6538461538461539</v>
+        <v>0.6339622641509434</v>
       </c>
       <c r="E3">
-        <v>0.4989690721649485</v>
+        <v>0.4968944099378882</v>
       </c>
       <c r="F3">
-        <v>0.6987951807228916</v>
+        <v>0.6479400749063671</v>
       </c>
       <c r="G3">
-        <v>0.4989816700610998</v>
+        <v>0.5020408163265306</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6989247311827957</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C4">
-        <v>0.4677754677754678</v>
+        <v>0.4822546972860125</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0.6836158192090396</v>
       </c>
       <c r="E4">
-        <v>0.445414847161572</v>
+        <v>0.4408759124087591</v>
       </c>
       <c r="F4">
-        <v>0.7386363636363636</v>
+        <v>0.7484662576687117</v>
       </c>
       <c r="G4">
-        <v>0.4223776223776224</v>
+        <v>0.4426934097421203</v>
       </c>
       <c r="H4">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.717948717948718</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="C5">
-        <v>0.4488188976377953</v>
+        <v>0.4701348747591522</v>
       </c>
       <c r="D5">
-        <v>0.7753623188405797</v>
+        <v>0.7793103448275862</v>
       </c>
       <c r="E5">
-        <v>0.450402144772118</v>
+        <v>0.4456094364351245</v>
       </c>
       <c r="F5">
-        <v>0.7424242424242424</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="G5">
-        <v>0.4388020833333333</v>
+        <v>0.4494949494949495</v>
       </c>
       <c r="H5">
-        <v>0.502</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7293233082706767</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="C6">
-        <v>0.4393382352941176</v>
+        <v>0.450354609929078</v>
       </c>
       <c r="D6">
-        <v>0.7984496124031008</v>
+        <v>0.7563025210084033</v>
       </c>
       <c r="E6">
-        <v>0.4719387755102041</v>
+        <v>0.4461343472750317</v>
       </c>
       <c r="F6">
-        <v>0.6324786324786325</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="G6">
-        <v>0.451693851944793</v>
+        <v>0.4555420219244823</v>
       </c>
       <c r="H6">
-        <v>0.488</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7535211267605634</v>
+        <v>0.65625</v>
       </c>
       <c r="C7">
-        <v>0.4380453752181501</v>
+        <v>0.4490131578947368</v>
       </c>
       <c r="D7">
-        <v>0.75</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="E7">
-        <v>0.4738853503184713</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="F7">
-        <v>0.5480769230769231</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="G7">
-        <v>0.4695652173913044</v>
+        <v>0.4627594627594628</v>
       </c>
       <c r="H7">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7816901408450704</v>
+        <v>0.6950354609929078</v>
       </c>
       <c r="C8">
-        <v>0.4461028192371476</v>
+        <v>0.471608832807571</v>
       </c>
       <c r="D8">
-        <v>0.7196969696969697</v>
+        <v>0.7129629629629629</v>
       </c>
       <c r="E8">
-        <v>0.4856396866840731</v>
+        <v>0.4663278271918678</v>
       </c>
       <c r="F8">
-        <v>0.6095238095238096</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="G8">
-        <v>0.465495608531995</v>
+        <v>0.4723926380368098</v>
       </c>
       <c r="H8">
-        <v>0.502</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7636363636363637</v>
+        <v>0.7357142857142858</v>
       </c>
       <c r="C9">
-        <v>0.4511627906976744</v>
+        <v>0.459214501510574</v>
       </c>
       <c r="D9">
-        <v>0.6074074074074074</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="E9">
-        <v>0.4854881266490765</v>
+        <v>0.4672657252888318</v>
       </c>
       <c r="F9">
-        <v>0.608</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="G9">
-        <v>0.4593908629441624</v>
+        <v>0.4800498753117207</v>
       </c>
       <c r="H9">
-        <v>0.502</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7682926829268293</v>
+        <v>0.8040540540540541</v>
       </c>
       <c r="C10">
-        <v>0.4380664652567976</v>
+        <v>0.4605633802816901</v>
       </c>
       <c r="D10">
-        <v>0.5615384615384615</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="E10">
-        <v>0.4874172185430464</v>
+        <v>0.4635416666666667</v>
       </c>
       <c r="F10">
-        <v>0.6239316239316239</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="G10">
-        <v>0.4527813712807244</v>
+        <v>0.4760705289672544</v>
       </c>
       <c r="H10">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7763975155279503</v>
+        <v>0.7612903225806451</v>
       </c>
       <c r="C11">
-        <v>0.4366197183098591</v>
+        <v>0.4457671957671958</v>
       </c>
       <c r="D11">
-        <v>0.6518518518518519</v>
+        <v>0.6030534351145038</v>
       </c>
       <c r="E11">
-        <v>0.4875491480996068</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F11">
-        <v>0.6307692307692307</v>
+        <v>0.6422018348623854</v>
       </c>
       <c r="G11">
-        <v>0.4576923076923077</v>
+        <v>0.4732919254658385</v>
       </c>
       <c r="H11">
-        <v>0.484</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C12">
-        <v>0.4478764478764479</v>
+        <v>0.4552238805970149</v>
       </c>
       <c r="D12">
-        <v>0.6879999999999999</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="E12">
-        <v>0.4744897959183674</v>
+        <v>0.4547770700636943</v>
       </c>
       <c r="F12">
-        <v>0.6343283582089553</v>
+        <v>0.6576576576576577</v>
       </c>
       <c r="G12">
-        <v>0.455919395465995</v>
+        <v>0.4759556103575832</v>
       </c>
       <c r="H12">
-        <v>0.478</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8053691275167785</v>
+        <v>0.7721518987341772</v>
       </c>
       <c r="C13">
-        <v>0.455410225921522</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="D13">
-        <v>0.6470588235294118</v>
+        <v>0.616822429906542</v>
       </c>
       <c r="E13">
-        <v>0.4784810126582278</v>
+        <v>0.4505632040050063</v>
       </c>
       <c r="F13">
-        <v>0.6991150442477876</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="G13">
-        <v>0.4555837563451777</v>
+        <v>0.4789603960396039</v>
       </c>
       <c r="H13">
-        <v>0.464</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7631578947368421</v>
+        <v>0.7278481012658228</v>
       </c>
       <c r="C14">
-        <v>0.4522727272727273</v>
+        <v>0.4636563876651982</v>
       </c>
       <c r="D14">
-        <v>0.6335877862595419</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="E14">
-        <v>0.4846153846153846</v>
+        <v>0.4590570719602978</v>
       </c>
       <c r="F14">
-        <v>0.6446280991735537</v>
+        <v>0.7029702970297029</v>
       </c>
       <c r="G14">
-        <v>0.4498094027954257</v>
+        <v>0.4741379310344828</v>
       </c>
       <c r="H14">
-        <v>0.462</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.8104575163398693</v>
       </c>
       <c r="C15">
-        <v>0.4577922077922078</v>
+        <v>0.4716386554621849</v>
       </c>
       <c r="D15">
-        <v>0.6470588235294118</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E15">
-        <v>0.4896640826873385</v>
+        <v>0.4618272841051314</v>
       </c>
       <c r="F15">
-        <v>0.6147540983606558</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="G15">
-        <v>0.4478371501272265</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="H15">
-        <v>0.462</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7159090909090909</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C16">
-        <v>0.4609781477627471</v>
+        <v>0.4551724137931035</v>
       </c>
       <c r="D16">
-        <v>0.6890756302521008</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E16">
-        <v>0.4809644670050762</v>
+        <v>0.4594257178526842</v>
       </c>
       <c r="F16">
-        <v>0.6260869565217392</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="G16">
-        <v>0.4421855146124524</v>
+        <v>0.4751861042183623</v>
       </c>
       <c r="H16">
-        <v>0.47</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7403314917127072</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="C17">
-        <v>0.4638255698711596</v>
+        <v>0.4540389972144847</v>
       </c>
       <c r="D17">
-        <v>0.6583333333333333</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="E17">
-        <v>0.4799498746867168</v>
+        <v>0.4476309226932668</v>
       </c>
       <c r="F17">
-        <v>0.6822429906542056</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="G17">
-        <v>0.4378109452736318</v>
+        <v>0.4720496894409938</v>
       </c>
       <c r="H17">
-        <v>0.47</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7861271676300579</v>
+        <v>0.7784431137724551</v>
       </c>
       <c r="C18">
-        <v>0.4622009569377991</v>
+        <v>0.4601611459265891</v>
       </c>
       <c r="D18">
-        <v>0.6818181818181818</v>
+        <v>0.7155172413793104</v>
       </c>
       <c r="E18">
-        <v>0.4784263959390863</v>
+        <v>0.4455569461827284</v>
       </c>
       <c r="F18">
-        <v>0.6190476190476191</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="G18">
-        <v>0.4440298507462687</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="H18">
-        <v>0.462</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8170731707317073</v>
+        <v>0.7901234567901234</v>
       </c>
       <c r="C19">
-        <v>0.461121157323689</v>
+        <v>0.4620689655172414</v>
       </c>
       <c r="D19">
-        <v>0.6290322580645161</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E19">
-        <v>0.4818067754077792</v>
+        <v>0.44625</v>
       </c>
       <c r="F19">
-        <v>0.6339285714285714</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="G19">
-        <v>0.4516129032258064</v>
+        <v>0.4687116564417178</v>
       </c>
       <c r="H19">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8072289156626506</v>
+        <v>0.8238993710691824</v>
       </c>
       <c r="C20">
-        <v>0.4608770421324161</v>
+        <v>0.4642563681183238</v>
       </c>
       <c r="D20">
-        <v>0.5982142857142857</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="E20">
-        <v>0.4891994917407878</v>
+        <v>0.4572490706319702</v>
       </c>
       <c r="F20">
-        <v>0.6476190476190476</v>
+        <v>0.6822429906542056</v>
       </c>
       <c r="G20">
-        <v>0.4469413233458177</v>
+        <v>0.4668304668304668</v>
       </c>
       <c r="H20">
-        <v>0.452</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7848837209302325</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="C21">
-        <v>0.463960231980116</v>
+        <v>0.4620253164556962</v>
       </c>
       <c r="D21">
-        <v>0.6206896551724138</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="E21">
-        <v>0.483502538071066</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="F21">
-        <v>0.5412844036697247</v>
+        <v>0.6448598130841121</v>
       </c>
       <c r="G21">
-        <v>0.4389027431421446</v>
+        <v>0.4588528678304239</v>
       </c>
       <c r="H21">
-        <v>0.454</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7712418300653595</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="C22">
-        <v>0.4624697336561743</v>
+        <v>0.4722010662604722</v>
       </c>
       <c r="D22">
-        <v>0.6416666666666667</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="E22">
-        <v>0.4788732394366197</v>
+        <v>0.4576485461441214</v>
       </c>
       <c r="F22">
-        <v>0.6120689655172413</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G22">
-        <v>0.4443037974683544</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="H22">
-        <v>0.44</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7857142857142857</v>
+        <v>0.7911392405063291</v>
       </c>
       <c r="C23">
-        <v>0.4740853658536585</v>
+        <v>0.4716285924834193</v>
       </c>
       <c r="D23">
-        <v>0.6850393700787402</v>
+        <v>0.5564516129032258</v>
       </c>
       <c r="E23">
-        <v>0.4699872286079183</v>
+        <v>0.4569961489088575</v>
       </c>
       <c r="F23">
-        <v>0.6386554621848739</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="G23">
-        <v>0.4372623574144487</v>
+        <v>0.4572158365261814</v>
       </c>
       <c r="H23">
-        <v>0.444</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7741935483870968</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="C24">
-        <v>0.475254730713246</v>
+        <v>0.4778254649499284</v>
       </c>
       <c r="D24">
-        <v>0.6017699115044248</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E24">
-        <v>0.4636942675159236</v>
+        <v>0.4451612903225807</v>
       </c>
       <c r="F24">
-        <v>0.6727272727272727</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="G24">
-        <v>0.4366373902132999</v>
+        <v>0.4703656998738966</v>
       </c>
       <c r="H24">
-        <v>0.44</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7777777777777778</v>
+        <v>0.75625</v>
       </c>
       <c r="C25">
-        <v>0.4728958630527818</v>
+        <v>0.4822646657571624</v>
       </c>
       <c r="D25">
-        <v>0.6371681415929203</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E25">
-        <v>0.4721518987341772</v>
+        <v>0.4409148665819568</v>
       </c>
       <c r="F25">
-        <v>0.6583333333333333</v>
+        <v>0.6183206106870229</v>
       </c>
       <c r="G25">
-        <v>0.4409547738693467</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="H25">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="C26">
-        <v>0.4725274725274725</v>
+        <v>0.4780585106382979</v>
       </c>
       <c r="D26">
-        <v>0.6610169491525424</v>
+        <v>0.6611570247933884</v>
       </c>
       <c r="E26">
-        <v>0.4664131812420786</v>
+        <v>0.4452830188679245</v>
       </c>
       <c r="F26">
-        <v>0.6557377049180327</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4402035623409669</v>
+        <v>0.4563843236409608</v>
       </c>
       <c r="H26">
-        <v>0.458</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.76</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="C27">
-        <v>0.4764432647644327</v>
+        <v>0.4818123803446075</v>
       </c>
       <c r="D27">
-        <v>0.6363636363636364</v>
+        <v>0.7226890756302521</v>
       </c>
       <c r="E27">
-        <v>0.4666666666666667</v>
+        <v>0.4406991260923845</v>
       </c>
       <c r="F27">
-        <v>0.6333333333333333</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="G27">
-        <v>0.4337957124842371</v>
+        <v>0.4531059683313033</v>
       </c>
       <c r="H27">
-        <v>0.468</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7905405405405406</v>
+        <v>0.7378048780487805</v>
       </c>
       <c r="C28">
-        <v>0.4771704180064308</v>
+        <v>0.4792054624456859</v>
       </c>
       <c r="D28">
-        <v>0.6454545454545455</v>
+        <v>0.6902654867256637</v>
       </c>
       <c r="E28">
-        <v>0.4751592356687898</v>
+        <v>0.439146800501882</v>
       </c>
       <c r="F28">
-        <v>0.6639344262295082</v>
+        <v>0.5773195876288659</v>
       </c>
       <c r="G28">
-        <v>0.4434561626429479</v>
+        <v>0.4511742892459827</v>
       </c>
       <c r="H28">
-        <v>0.454</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7548387096774194</v>
+        <v>0.8</v>
       </c>
       <c r="C29">
-        <v>0.4725138974675726</v>
+        <v>0.48</v>
       </c>
       <c r="D29">
-        <v>0.5948275862068966</v>
+        <v>0.7280701754385965</v>
       </c>
       <c r="E29">
-        <v>0.4756554307116105</v>
+        <v>0.4389312977099237</v>
       </c>
       <c r="F29">
-        <v>0.6129032258064516</v>
+        <v>0.5819672131147541</v>
       </c>
       <c r="G29">
-        <v>0.4381313131313131</v>
+        <v>0.445273631840796</v>
       </c>
       <c r="H29">
-        <v>0.454</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7245508982035929</v>
+        <v>0.7630057803468208</v>
       </c>
       <c r="C30">
-        <v>0.4754196642685851</v>
+        <v>0.4757167934464599</v>
       </c>
       <c r="D30">
-        <v>0.693069306930693</v>
+        <v>0.65625</v>
       </c>
       <c r="E30">
-        <v>0.4801488833746898</v>
+        <v>0.4440203562340967</v>
       </c>
       <c r="F30">
-        <v>0.6306306306306306</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="G30">
-        <v>0.4430538172715895</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="H30">
-        <v>0.458</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7891156462585034</v>
+        <v>0.8012048192771084</v>
       </c>
       <c r="C31">
-        <v>0.4763019309537742</v>
+        <v>0.479154768703598</v>
       </c>
       <c r="D31">
-        <v>0.6363636363636364</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="E31">
-        <v>0.4736196319018405</v>
+        <v>0.4536213468869123</v>
       </c>
       <c r="F31">
-        <v>0.6545454545454545</v>
+        <v>0.5905511811023622</v>
       </c>
       <c r="G31">
-        <v>0.4473358116480793</v>
+        <v>0.4415094339622642</v>
       </c>
       <c r="H31">
-        <v>0.436</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7770700636942676</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C32">
-        <v>0.4733595064498037</v>
+        <v>0.479490022172949</v>
       </c>
       <c r="D32">
-        <v>0.6237623762376238</v>
+        <v>0.6554621848739496</v>
       </c>
       <c r="E32">
-        <v>0.482843137254902</v>
+        <v>0.4483204134366925</v>
       </c>
       <c r="F32">
-        <v>0.6697247706422018</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="G32">
-        <v>0.4430693069306931</v>
+        <v>0.4382165605095542</v>
       </c>
       <c r="H32">
-        <v>0.432</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7847222222222222</v>
+        <v>0.8053691275167785</v>
       </c>
       <c r="C33">
-        <v>0.4743169398907104</v>
+        <v>0.4858849077090119</v>
       </c>
       <c r="D33">
-        <v>0.6</v>
+        <v>0.576</v>
       </c>
       <c r="E33">
-        <v>0.4889705882352941</v>
+        <v>0.4407216494845361</v>
       </c>
       <c r="F33">
-        <v>0.6442307692307693</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G33">
-        <v>0.436498150431566</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H33">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7777777777777778</v>
+        <v>0.7911392405063291</v>
       </c>
       <c r="C34">
-        <v>0.4733227680929741</v>
+        <v>0.486444212721585</v>
       </c>
       <c r="D34">
-        <v>0.6052631578947368</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="E34">
-        <v>0.493184634448575</v>
+        <v>0.4477040816326531</v>
       </c>
       <c r="F34">
-        <v>0.5979381443298969</v>
+        <v>0.6377952755905512</v>
       </c>
       <c r="G34">
-        <v>0.4403444034440344</v>
+        <v>0.4337957124842371</v>
       </c>
       <c r="H34">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8159509202453987</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C35">
-        <v>0.4715615305067218</v>
+        <v>0.486969851814001</v>
       </c>
       <c r="D35">
-        <v>0.6434782608695652</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="E35">
-        <v>0.4875930521091811</v>
+        <v>0.4481012658227848</v>
       </c>
       <c r="F35">
-        <v>0.625</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="G35">
-        <v>0.4424242424242424</v>
+        <v>0.4314720812182741</v>
       </c>
       <c r="H35">
-        <v>0.456</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7964071856287425</v>
+        <v>0.8011363636363636</v>
       </c>
       <c r="C36">
-        <v>0.4716312056737589</v>
+        <v>0.4885799404170804</v>
       </c>
       <c r="D36">
-        <v>0.6666666666666666</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="E36">
-        <v>0.4886649874055415</v>
+        <v>0.4432098765432099</v>
       </c>
       <c r="F36">
-        <v>0.6630434782608695</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="G36">
-        <v>0.4374225526641883</v>
+        <v>0.4305210918114144</v>
       </c>
       <c r="H36">
-        <v>0.446</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7987012987012987</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C37">
-        <v>0.4719602977667494</v>
+        <v>0.4865919063871282</v>
       </c>
       <c r="D37">
-        <v>0.5619834710743802</v>
+        <v>0.6039603960396039</v>
       </c>
       <c r="E37">
-        <v>0.4886075949367089</v>
+        <v>0.454320987654321</v>
       </c>
       <c r="F37">
-        <v>0.5754716981132075</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="G37">
-        <v>0.4414303329223181</v>
+        <v>0.4375772558714462</v>
       </c>
       <c r="H37">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7814569536423841</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="C38">
-        <v>0.4739884393063584</v>
+        <v>0.4881065651760229</v>
       </c>
       <c r="D38">
-        <v>0.6068376068376068</v>
+        <v>0.58</v>
       </c>
       <c r="E38">
-        <v>0.4917197452229299</v>
+        <v>0.4525277435265105</v>
       </c>
       <c r="F38">
-        <v>0.5909090909090909</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="G38">
-        <v>0.4427860696517413</v>
+        <v>0.4375772558714462</v>
       </c>
       <c r="H38">
-        <v>0.444</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7579617834394905</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="C39">
-        <v>0.4767058823529412</v>
+        <v>0.4867626567580121</v>
       </c>
       <c r="D39">
-        <v>0.6864406779661016</v>
+        <v>0.6036036036036037</v>
       </c>
       <c r="E39">
-        <v>0.4821428571428572</v>
+        <v>0.4451371571072319</v>
       </c>
       <c r="F39">
-        <v>0.6320754716981132</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G39">
-        <v>0.4434673366834171</v>
+        <v>0.435929648241206</v>
       </c>
       <c r="H39">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7423312883435583</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="C40">
-        <v>0.4785812989405804</v>
+        <v>0.4878815080789946</v>
       </c>
       <c r="D40">
-        <v>0.6692913385826772</v>
+        <v>0.6283185840707964</v>
       </c>
       <c r="E40">
-        <v>0.4695431472081218</v>
+        <v>0.4451450189155107</v>
       </c>
       <c r="F40">
-        <v>0.6153846153846154</v>
+        <v>0.6126126126126126</v>
       </c>
       <c r="G40">
-        <v>0.4413965087281795</v>
+        <v>0.4319306930693069</v>
       </c>
       <c r="H40">
-        <v>0.446</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7341040462427746</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C41">
-        <v>0.479223125564589</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="D41">
-        <v>0.6545454545454545</v>
+        <v>0.6396396396396397</v>
       </c>
       <c r="E41">
-        <v>0.4680306905370844</v>
+        <v>0.4540942928039702</v>
       </c>
       <c r="F41">
-        <v>0.6454545454545455</v>
+        <v>0.6039603960396039</v>
       </c>
       <c r="G41">
-        <v>0.4389937106918239</v>
+        <v>0.426980198019802</v>
       </c>
       <c r="H41">
-        <v>0.452</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7569060773480663</v>
+        <v>0.80625</v>
       </c>
       <c r="C42">
-        <v>0.4801604993312528</v>
+        <v>0.4878892733564014</v>
       </c>
       <c r="D42">
-        <v>0.6213592233009708</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="E42">
-        <v>0.4699872286079183</v>
+        <v>0.4539722572509458</v>
       </c>
       <c r="F42">
-        <v>0.6666666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="G42">
-        <v>0.4321926489226869</v>
+        <v>0.4331683168316832</v>
       </c>
       <c r="H42">
-        <v>0.462</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7219251336898396</v>
+        <v>0.7621951219512195</v>
       </c>
       <c r="C43">
-        <v>0.4775599128540305</v>
+        <v>0.4843617920540997</v>
       </c>
       <c r="D43">
-        <v>0.5833333333333334</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E43">
-        <v>0.4744069912609238</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F43">
-        <v>0.648</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="G43">
-        <v>0.4224464060529634</v>
+        <v>0.4365853658536585</v>
       </c>
       <c r="H43">
-        <v>0.472</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7624309392265194</v>
+        <v>0.756578947368421</v>
       </c>
       <c r="C44">
-        <v>0.4829642248722317</v>
+        <v>0.4859154929577465</v>
       </c>
       <c r="D44">
-        <v>0.6320754716981132</v>
+        <v>0.6875</v>
       </c>
       <c r="E44">
-        <v>0.4777227722772277</v>
+        <v>0.4476309226932668</v>
       </c>
       <c r="F44">
-        <v>0.6605504587155964</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="G44">
-        <v>0.4248447204968944</v>
+        <v>0.4375</v>
       </c>
       <c r="H44">
-        <v>0.466</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7966101694915254</v>
+        <v>0.7579617834394905</v>
       </c>
       <c r="C45">
-        <v>0.4802494802494803</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="D45">
-        <v>0.6057692307692307</v>
+        <v>0.6902654867256637</v>
       </c>
       <c r="E45">
-        <v>0.4712362301101591</v>
+        <v>0.4495073891625616</v>
       </c>
       <c r="F45">
-        <v>0.6470588235294118</v>
+        <v>0.61</v>
       </c>
       <c r="G45">
-        <v>0.4283965728274174</v>
+        <v>0.4332129963898917</v>
       </c>
       <c r="H45">
-        <v>0.476</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7978142076502732</v>
+        <v>0.7701863354037267</v>
       </c>
       <c r="C46">
-        <v>0.480440097799511</v>
+        <v>0.4871693643900513</v>
       </c>
       <c r="D46">
-        <v>0.594059405940594</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="E46">
-        <v>0.4632627646326277</v>
+        <v>0.4503722084367245</v>
       </c>
       <c r="F46">
-        <v>0.638095238095238</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="G46">
-        <v>0.426980198019802</v>
+        <v>0.4318734793187348</v>
       </c>
       <c r="H46">
-        <v>0.472</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="C47">
-        <v>0.4823434991974318</v>
+        <v>0.485803189420459</v>
       </c>
       <c r="D47">
-        <v>0.5948275862068966</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="E47">
-        <v>0.4595959595959596</v>
+        <v>0.452020202020202</v>
       </c>
       <c r="F47">
-        <v>0.6666666666666666</v>
+        <v>0.6039603960396039</v>
       </c>
       <c r="G47">
-        <v>0.4316455696202532</v>
+        <v>0.4388133498145859</v>
       </c>
       <c r="H47">
-        <v>0.464</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8333333333333334</v>
+        <v>0.7707006369426752</v>
       </c>
       <c r="C48">
-        <v>0.4822974036191975</v>
+        <v>0.486280487804878</v>
       </c>
       <c r="D48">
-        <v>0.5692307692307692</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="E48">
-        <v>0.4533844189016603</v>
+        <v>0.4461343472750317</v>
       </c>
       <c r="F48">
-        <v>0.6825396825396826</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="G48">
-        <v>0.4234693877551021</v>
+        <v>0.4390547263681592</v>
       </c>
       <c r="H48">
-        <v>0.46</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8313953488372093</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="C49">
-        <v>0.4808429118773946</v>
+        <v>0.4830413715989564</v>
       </c>
       <c r="D49">
-        <v>0.6120689655172413</v>
+        <v>0.6982758620689655</v>
       </c>
       <c r="E49">
-        <v>0.4471337579617835</v>
+        <v>0.4551201011378003</v>
       </c>
       <c r="F49">
-        <v>0.6134453781512605</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="G49">
-        <v>0.4298356510745892</v>
+        <v>0.4330024813895781</v>
       </c>
       <c r="H49">
-        <v>0.45</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7738095238095238</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="C50">
-        <v>0.4796992481203007</v>
+        <v>0.4836457184858508</v>
       </c>
       <c r="D50">
-        <v>0.625</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="E50">
-        <v>0.442643391521197</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F50">
-        <v>0.711340206185567</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G50">
-        <v>0.4369538077403246</v>
+        <v>0.4347290640394089</v>
       </c>
       <c r="H50">
-        <v>0.458</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7745664739884393</v>
+        <v>0.738255033557047</v>
       </c>
       <c r="C51">
-        <v>0.482847657690889</v>
+        <v>0.4826599928494816</v>
       </c>
       <c r="D51">
-        <v>0.6228070175438597</v>
+        <v>0.6691729323308271</v>
       </c>
       <c r="E51">
-        <v>0.4463840399002494</v>
+        <v>0.4631710362047441</v>
       </c>
       <c r="F51">
-        <v>0.6633663366336634</v>
+        <v>0.5701754385964912</v>
       </c>
       <c r="G51">
-        <v>0.4278728606356968</v>
+        <v>0.4367396593673966</v>
       </c>
       <c r="H51">
-        <v>0.472</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7953216374269005</v>
+        <v>0.762589928057554</v>
       </c>
       <c r="C52">
-        <v>0.4823956442831216</v>
+        <v>0.4822120464952448</v>
       </c>
       <c r="D52">
-        <v>0.6521739130434783</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E52">
-        <v>0.4510050251256281</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="F52">
-        <v>0.6194690265486725</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="G52">
-        <v>0.4285714285714285</v>
+        <v>0.4392991239048811</v>
       </c>
       <c r="H52">
-        <v>0.474</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8136645962732919</v>
+        <v>0.7730496453900709</v>
       </c>
       <c r="C53">
-        <v>0.4811253561253561</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D53">
-        <v>0.639344262295082</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="E53">
-        <v>0.4521410579345088</v>
+        <v>0.4628205128205128</v>
       </c>
       <c r="F53">
-        <v>0.5625</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="G53">
-        <v>0.4260651629072681</v>
+        <v>0.437892095357591</v>
       </c>
       <c r="H53">
-        <v>0.476</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7597402597402597</v>
+        <v>0.7898550724637681</v>
       </c>
       <c r="C54">
-        <v>0.4837696335078534</v>
+        <v>0.4812309773419006</v>
       </c>
       <c r="D54">
-        <v>0.6428571428571429</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E54">
-        <v>0.4553571428571428</v>
+        <v>0.4681122448979592</v>
       </c>
       <c r="F54">
-        <v>0.5607476635514018</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="G54">
-        <v>0.4346733668341708</v>
+        <v>0.4275</v>
       </c>
       <c r="H54">
-        <v>0.466</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7439024390243902</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C55">
-        <v>0.4875298940895114</v>
+        <v>0.4821844821844822</v>
       </c>
       <c r="D55">
-        <v>0.5565217391304348</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="E55">
-        <v>0.462406015037594</v>
+        <v>0.4809160305343512</v>
       </c>
       <c r="F55">
-        <v>0.5784313725490197</v>
+        <v>0.58</v>
       </c>
       <c r="G55">
-        <v>0.4298136645962733</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="H55">
-        <v>0.462</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7564102564102564</v>
+        <v>0.762589928057554</v>
       </c>
       <c r="C56">
-        <v>0.4882234185733513</v>
+        <v>0.4809711286089239</v>
       </c>
       <c r="D56">
-        <v>0.5887850467289719</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E56">
-        <v>0.4713216957605985</v>
+        <v>0.4817610062893082</v>
       </c>
       <c r="F56">
-        <v>0.6</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="G56">
-        <v>0.420343137254902</v>
+        <v>0.4470734744707348</v>
       </c>
       <c r="H56">
-        <v>0.474</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7616279069767442</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="C57">
-        <v>0.4885950413223141</v>
+        <v>0.4815290716350787</v>
       </c>
       <c r="D57">
-        <v>0.5700934579439252</v>
+        <v>0.7043478260869566</v>
       </c>
       <c r="E57">
-        <v>0.4683229813664596</v>
+        <v>0.4849624060150376</v>
       </c>
       <c r="F57">
-        <v>0.5588235294117647</v>
+        <v>0.5784313725490197</v>
       </c>
       <c r="G57">
-        <v>0.416256157635468</v>
+        <v>0.4322660098522167</v>
       </c>
       <c r="H57">
-        <v>0.478</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7570621468926554</v>
+        <v>0.7548387096774194</v>
       </c>
       <c r="C58">
-        <v>0.4859201047806156</v>
+        <v>0.4813997477931904</v>
       </c>
       <c r="D58">
-        <v>0.5714285714285714</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="E58">
-        <v>0.4697732997481108</v>
+        <v>0.4852216748768473</v>
       </c>
       <c r="F58">
-        <v>0.6161616161616161</v>
+        <v>0.6195652173913043</v>
       </c>
       <c r="G58">
-        <v>0.4230769230769231</v>
+        <v>0.4425634824667473</v>
       </c>
       <c r="H58">
-        <v>0.46</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7784431137724551</v>
+        <v>0.7763975155279503</v>
       </c>
       <c r="C59">
-        <v>0.482947232947233</v>
+        <v>0.4812967581047382</v>
       </c>
       <c r="D59">
-        <v>0.5966386554621849</v>
+        <v>0.7155963302752294</v>
       </c>
       <c r="E59">
-        <v>0.4663341645885287</v>
+        <v>0.4771322620519159</v>
       </c>
       <c r="F59">
-        <v>0.6018518518518519</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="G59">
-        <v>0.4105392156862745</v>
+        <v>0.4358353510895884</v>
       </c>
       <c r="H59">
-        <v>0.468</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8012048192771084</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="C60">
-        <v>0.4834332597033765</v>
+        <v>0.4794604537093807</v>
       </c>
       <c r="D60">
-        <v>0.6759259259259259</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="E60">
-        <v>0.4650872817955112</v>
+        <v>0.4808877928483354</v>
       </c>
       <c r="F60">
-        <v>0.6538461538461539</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="G60">
-        <v>0.4129901960784313</v>
+        <v>0.4373493975903615</v>
       </c>
       <c r="H60">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7716049382716049</v>
+        <v>0.76875</v>
       </c>
       <c r="C61">
-        <v>0.4824588637069233</v>
+        <v>0.4823848238482385</v>
       </c>
       <c r="D61">
-        <v>0.6521739130434783</v>
+        <v>0.693069306930693</v>
       </c>
       <c r="E61">
-        <v>0.4713216957605985</v>
+        <v>0.4843554443053817</v>
       </c>
       <c r="F61">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G61">
-        <v>0.4123456790123457</v>
+        <v>0.4303030303030303</v>
       </c>
       <c r="H61">
-        <v>0.444</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7777777777777778</v>
+        <v>0.7730061349693251</v>
       </c>
       <c r="C62">
-        <v>0.4834963325183374</v>
+        <v>0.4816909794581721</v>
       </c>
       <c r="D62">
-        <v>0.6581196581196581</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="E62">
-        <v>0.4691046658259773</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="F62">
-        <v>0.5673076923076923</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="G62">
-        <v>0.4211180124223602</v>
+        <v>0.4417177914110429</v>
       </c>
       <c r="H62">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7615894039735099</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="C63">
-        <v>0.4838612368024133</v>
+        <v>0.4814487632508834</v>
       </c>
       <c r="D63">
-        <v>0.6879999999999999</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="E63">
-        <v>0.4661558109833972</v>
+        <v>0.4910941475826972</v>
       </c>
       <c r="F63">
-        <v>0.5648148148148148</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G63">
-        <v>0.4265997490589711</v>
+        <v>0.4392991239048811</v>
       </c>
       <c r="H63">
-        <v>0.428</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.775</v>
+        <v>0.8098159509202454</v>
       </c>
       <c r="C64">
-        <v>0.4855200945626478</v>
+        <v>0.480997969248622</v>
       </c>
       <c r="D64">
-        <v>0.6616541353383458</v>
+        <v>0.6171875</v>
       </c>
       <c r="E64">
-        <v>0.4655612244897959</v>
+        <v>0.4866581956797967</v>
       </c>
       <c r="F64">
-        <v>0.6086956521739131</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="G64">
-        <v>0.4340796019900497</v>
+        <v>0.4396984924623116</v>
       </c>
       <c r="H64">
-        <v>0.424</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7857142857142857</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="C65">
-        <v>0.4819806621740405</v>
+        <v>0.4803194523673702</v>
       </c>
       <c r="D65">
-        <v>0.6779661016949152</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E65">
-        <v>0.4643320363164721</v>
+        <v>0.4835443037974684</v>
       </c>
       <c r="F65">
-        <v>0.6407766990291263</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="G65">
-        <v>0.4262295081967213</v>
+        <v>0.4419475655430712</v>
       </c>
       <c r="H65">
-        <v>0.414</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7974683544303798</v>
+        <v>0.831081081081081</v>
       </c>
       <c r="C66">
-        <v>0.480080831408776</v>
+        <v>0.4813673297842533</v>
       </c>
       <c r="D66">
-        <v>0.7153846153846154</v>
+        <v>0.6237623762376238</v>
       </c>
       <c r="E66">
-        <v>0.4627249357326478</v>
+        <v>0.4937655860349127</v>
       </c>
       <c r="F66">
-        <v>0.6347826086956522</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G66">
-        <v>0.4163522012578617</v>
+        <v>0.4417177914110429</v>
       </c>
       <c r="H66">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8074534161490683</v>
+        <v>0.8012048192771084</v>
       </c>
       <c r="C67">
-        <v>0.4800456100342075</v>
+        <v>0.4797241379310345</v>
       </c>
       <c r="D67">
-        <v>0.7348484848484849</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="E67">
-        <v>0.461139896373057</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="F67">
-        <v>0.6635514018691588</v>
+        <v>0.61</v>
       </c>
       <c r="G67">
-        <v>0.4191919191919192</v>
+        <v>0.4392638036809816</v>
       </c>
       <c r="H67">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7965116279069767</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="C68">
-        <v>0.4790436005625879</v>
+        <v>0.4792122538293216</v>
       </c>
       <c r="D68">
-        <v>0.6642857142857143</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="E68">
-        <v>0.4682230869001297</v>
+        <v>0.4864197530864198</v>
       </c>
       <c r="F68">
-        <v>0.6574074074074074</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G68">
-        <v>0.4170854271356784</v>
+        <v>0.4330024813895781</v>
       </c>
       <c r="H68">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.813953488372093</v>
+        <v>0.7625</v>
       </c>
       <c r="C69">
-        <v>0.4788654060066741</v>
+        <v>0.4819698600645856</v>
       </c>
       <c r="D69">
-        <v>0.6971830985915493</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E69">
-        <v>0.4791666666666667</v>
+        <v>0.4900497512437811</v>
       </c>
       <c r="F69">
-        <v>0.6036036036036037</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="G69">
-        <v>0.4184308841843088</v>
+        <v>0.4276807980049875</v>
       </c>
       <c r="H69">
-        <v>0.436</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8092485549132948</v>
+        <v>0.743421052631579</v>
       </c>
       <c r="C70">
-        <v>0.4762427904421862</v>
+        <v>0.4828594206749934</v>
       </c>
       <c r="D70">
-        <v>0.6587301587301587</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E70">
-        <v>0.4830287206266319</v>
+        <v>0.4875311720698254</v>
       </c>
       <c r="F70">
-        <v>0.5495495495495496</v>
+        <v>0.6126126126126126</v>
       </c>
       <c r="G70">
-        <v>0.4316185696361355</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="H70">
-        <v>0.422</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7808988764044944</v>
+        <v>0.7483870967741936</v>
       </c>
       <c r="C71">
-        <v>0.4759329367225527</v>
+        <v>0.4842931937172775</v>
       </c>
       <c r="D71">
-        <v>0.6825396825396826</v>
+        <v>0.6</v>
       </c>
       <c r="E71">
-        <v>0.49428208386277</v>
+        <v>0.4836683417085427</v>
       </c>
       <c r="F71">
-        <v>0.5754716981132075</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G71">
-        <v>0.4330024813895781</v>
+        <v>0.4341279799247177</v>
       </c>
       <c r="H71">
-        <v>0.436</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.8304093567251462</v>
+        <v>0.7469135802469136</v>
       </c>
       <c r="C72">
-        <v>0.4768406961178046</v>
+        <v>0.4837040869115365</v>
       </c>
       <c r="D72">
-        <v>0.6578947368421053</v>
+        <v>0.6272727272727273</v>
       </c>
       <c r="E72">
-        <v>0.4923664122137404</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="F72">
-        <v>0.5656565656565656</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="G72">
-        <v>0.4275092936802974</v>
+        <v>0.4344569288389513</v>
       </c>
       <c r="H72">
-        <v>0.434</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.810126582278481</v>
+        <v>0.7891566265060241</v>
       </c>
       <c r="C73">
-        <v>0.4746835443037974</v>
+        <v>0.4841025641025641</v>
       </c>
       <c r="D73">
-        <v>0.6504065040650406</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E73">
-        <v>0.4968233799237611</v>
+        <v>0.4645569620253164</v>
       </c>
       <c r="F73">
-        <v>0.6571428571428571</v>
+        <v>0.6788990825688074</v>
       </c>
       <c r="G73">
-        <v>0.4287484510532837</v>
+        <v>0.4296577946768061</v>
       </c>
       <c r="H73">
-        <v>0.424</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.8231292517006803</v>
+        <v>0.7844311377245509</v>
       </c>
       <c r="C74">
-        <v>0.4762768991444127</v>
+        <v>0.4818665990362668</v>
       </c>
       <c r="D74">
-        <v>0.6638655462184874</v>
+        <v>0.6330275229357798</v>
       </c>
       <c r="E74">
-        <v>0.4974747474747475</v>
+        <v>0.4728877679697352</v>
       </c>
       <c r="F74">
-        <v>0.660377358490566</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="G74">
-        <v>0.4206642066420664</v>
+        <v>0.4298356510745892</v>
       </c>
       <c r="H74">
-        <v>0.438</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7987804878048781</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="C75">
-        <v>0.4769309202141219</v>
+        <v>0.4822411205602801</v>
       </c>
       <c r="D75">
-        <v>0.6666666666666666</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="E75">
-        <v>0.5006226650062267</v>
+        <v>0.4630788485607009</v>
       </c>
       <c r="F75">
-        <v>0.6509433962264151</v>
+        <v>0.6528925619834711</v>
       </c>
       <c r="G75">
-        <v>0.4126984126984127</v>
+        <v>0.4292929292929293</v>
       </c>
       <c r="H75">
-        <v>0.45</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8170731707317073</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="C76">
-        <v>0.4755758035940268</v>
+        <v>0.4839347503707365</v>
       </c>
       <c r="D76">
-        <v>0.711864406779661</v>
+        <v>0.6576576576576577</v>
       </c>
       <c r="E76">
-        <v>0.4974747474747475</v>
+        <v>0.4634448574969021</v>
       </c>
       <c r="F76">
-        <v>0.6116504854368932</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="G76">
-        <v>0.4143033292231812</v>
+        <v>0.4370277078085643</v>
       </c>
       <c r="H76">
-        <v>0.452</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.8216560509554141</v>
+        <v>0.7569060773480663</v>
       </c>
       <c r="C77">
-        <v>0.4734867433716858</v>
+        <v>0.4834227206240858</v>
       </c>
       <c r="D77">
-        <v>0.696969696969697</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="E77">
-        <v>0.4834605597964376</v>
+        <v>0.4603960396039604</v>
       </c>
       <c r="F77">
-        <v>0.6173913043478261</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="G77">
-        <v>0.4198757763975156</v>
+        <v>0.4296296296296296</v>
       </c>
       <c r="H77">
-        <v>0.444</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7727272727272727</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C78">
-        <v>0.47422934648582</v>
+        <v>0.4823019503973032</v>
       </c>
       <c r="D78">
-        <v>0.7244094488188977</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="E78">
-        <v>0.4813863928112965</v>
+        <v>0.4641975308641975</v>
       </c>
       <c r="F78">
-        <v>0.6272727272727273</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="G78">
-        <v>0.4197994987468672</v>
+        <v>0.4425427872860636</v>
       </c>
       <c r="H78">
-        <v>0.44</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6942675159235668</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C79">
-        <v>0.4776556776556777</v>
+        <v>0.4820792784239259</v>
       </c>
       <c r="D79">
-        <v>0.6439393939393939</v>
+        <v>0.6761904761904762</v>
       </c>
       <c r="E79">
-        <v>0.4889753566796368</v>
+        <v>0.4684796044499382</v>
       </c>
       <c r="F79">
-        <v>0.6818181818181818</v>
+        <v>0.5773195876288659</v>
       </c>
       <c r="G79">
-        <v>0.4184576485461441</v>
+        <v>0.4445797807551766</v>
       </c>
       <c r="H79">
-        <v>0.444</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7044025157232704</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="C80">
-        <v>0.480328264542602</v>
+        <v>0.4827180813543381</v>
       </c>
       <c r="D80">
-        <v>0.6133333333333333</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="E80">
-        <v>0.4960835509138381</v>
+        <v>0.4564943253467844</v>
       </c>
       <c r="F80">
-        <v>0.6229508196721312</v>
+        <v>0.6132075471698113</v>
       </c>
       <c r="G80">
-        <v>0.4182509505703422</v>
+        <v>0.4367245657568238</v>
       </c>
       <c r="H80">
-        <v>0.442</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7466666666666667</v>
+        <v>0.7951807228915663</v>
       </c>
       <c r="C81">
-        <v>0.4786447148651873</v>
+        <v>0.4817907678032939</v>
       </c>
       <c r="D81">
-        <v>0.6571428571428571</v>
+        <v>0.6147540983606558</v>
       </c>
       <c r="E81">
-        <v>0.4888010540184453</v>
+        <v>0.458808618504436</v>
       </c>
       <c r="F81">
-        <v>0.7142857142857143</v>
+        <v>0.6454545454545455</v>
       </c>
       <c r="G81">
-        <v>0.4265822784810127</v>
+        <v>0.44180225281602</v>
       </c>
       <c r="H81">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7547169811320755</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="C82">
-        <v>0.4785362420830401</v>
+        <v>0.4814305364511692</v>
       </c>
       <c r="D82">
-        <v>0.7111111111111111</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="E82">
-        <v>0.4826700898587933</v>
+        <v>0.4703656998738966</v>
       </c>
       <c r="F82">
-        <v>0.7043478260869566</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="G82">
-        <v>0.4234567901234568</v>
+        <v>0.4437577255871446</v>
       </c>
       <c r="H82">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7484276729559748</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C83">
-        <v>0.4793311658151417</v>
+        <v>0.4806818181818182</v>
       </c>
       <c r="D83">
-        <v>0.6942148760330579</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="E83">
-        <v>0.4891443167305236</v>
+        <v>0.4610552763819096</v>
       </c>
       <c r="F83">
-        <v>0.7572815533980582</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="G83">
-        <v>0.4335403726708075</v>
+        <v>0.4412855377008653</v>
       </c>
       <c r="H83">
-        <v>0.42</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7349397590361446</v>
+        <v>0.8081395348837209</v>
       </c>
       <c r="C84">
-        <v>0.4807073954983923</v>
+        <v>0.4815398469158037</v>
       </c>
       <c r="D84">
-        <v>0.6050420168067226</v>
+        <v>0.6747967479674797</v>
       </c>
       <c r="E84">
-        <v>0.4923469387755102</v>
+        <v>0.4558080808080808</v>
       </c>
       <c r="F84">
-        <v>0.6548672566371682</v>
+        <v>0.6371681415929203</v>
       </c>
       <c r="G84">
-        <v>0.431592039800995</v>
+        <v>0.44625</v>
       </c>
       <c r="H84">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7515151515151515</v>
+        <v>0.7724550898203593</v>
       </c>
       <c r="C85">
-        <v>0.4826254826254826</v>
+        <v>0.4815882874889086</v>
       </c>
       <c r="D85">
-        <v>0.6106194690265486</v>
+        <v>0.6412213740458015</v>
       </c>
       <c r="E85">
-        <v>0.5025125628140703</v>
+        <v>0.4518987341772152</v>
       </c>
       <c r="F85">
-        <v>0.631578947368421</v>
+        <v>0.6810344827586207</v>
       </c>
       <c r="G85">
-        <v>0.4351620947630923</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="H85">
-        <v>0.434</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.754601226993865</v>
+        <v>0.80625</v>
       </c>
       <c r="C86">
-        <v>0.4823397075365579</v>
+        <v>0.4821154268158876</v>
       </c>
       <c r="D86">
-        <v>0.5625</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="E86">
-        <v>0.4912060301507538</v>
+        <v>0.4521072796934866</v>
       </c>
       <c r="F86">
-        <v>0.6074766355140186</v>
+        <v>0.7117117117117117</v>
       </c>
       <c r="G86">
-        <v>0.4455569461827284</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="H86">
-        <v>0.426</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.754601226993865</v>
+        <v>0.7770700636942676</v>
       </c>
       <c r="C87">
-        <v>0.4826820603907638</v>
+        <v>0.481786643538595</v>
       </c>
       <c r="D87">
-        <v>0.5882352941176471</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="E87">
-        <v>0.4811083123425693</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="F87">
-        <v>0.6379310344827587</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G87">
-        <v>0.4458281444582815</v>
+        <v>0.4519350811485643</v>
       </c>
       <c r="H87">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7888198757763976</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C88">
-        <v>0.4816845799517438</v>
+        <v>0.483076263924593</v>
       </c>
       <c r="D88">
-        <v>0.6226415094339622</v>
+        <v>0.6554621848739496</v>
       </c>
       <c r="E88">
-        <v>0.4756554307116105</v>
+        <v>0.460377358490566</v>
       </c>
       <c r="F88">
-        <v>0.6857142857142857</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="G88">
-        <v>0.4432098765432099</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="H88">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7865853658536586</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C89">
-        <v>0.4794788273615635</v>
+        <v>0.4820219966159052</v>
       </c>
       <c r="D89">
-        <v>0.6476190476190476</v>
+        <v>0.6728971962616822</v>
       </c>
       <c r="E89">
-        <v>0.4782067247820673</v>
+        <v>0.4600760456273764</v>
       </c>
       <c r="F89">
-        <v>0.67</v>
+        <v>0.5752212389380531</v>
       </c>
       <c r="G89">
-        <v>0.4473358116480793</v>
+        <v>0.4718397997496871</v>
       </c>
       <c r="H89">
-        <v>0.42</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.81875</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="C90">
-        <v>0.4808684436801376</v>
+        <v>0.4827299209321681</v>
       </c>
       <c r="D90">
-        <v>0.6902654867256637</v>
+        <v>0.6822429906542056</v>
       </c>
       <c r="E90">
-        <v>0.4837092731829574</v>
+        <v>0.4598269468479604</v>
       </c>
       <c r="F90">
-        <v>0.5871559633027523</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G90">
-        <v>0.4502487562189055</v>
+        <v>0.4632627646326277</v>
       </c>
       <c r="H90">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8163265306122449</v>
+        <v>0.7709923664122137</v>
       </c>
       <c r="C91">
-        <v>0.4797196857082183</v>
+        <v>0.4834259831171505</v>
       </c>
       <c r="D91">
-        <v>0.6083333333333333</v>
+        <v>0.7476635514018691</v>
       </c>
       <c r="E91">
-        <v>0.4830614805520703</v>
+        <v>0.4585365853658537</v>
       </c>
       <c r="F91">
-        <v>0.5964912280701754</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="G91">
-        <v>0.4564676616915423</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="H91">
-        <v>0.424</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7628205128205128</v>
+        <v>0.7703703703703704</v>
       </c>
       <c r="C92">
-        <v>0.4797905759162304</v>
+        <v>0.4829765545361875</v>
       </c>
       <c r="D92">
-        <v>0.6037735849056604</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E92">
-        <v>0.484394506866417</v>
+        <v>0.4509316770186335</v>
       </c>
       <c r="F92">
-        <v>0.5826086956521739</v>
+        <v>0.5876288659793815</v>
       </c>
       <c r="G92">
-        <v>0.4530864197530864</v>
+        <v>0.4645962732919255</v>
       </c>
       <c r="H92">
-        <v>0.42</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8120805369127517</v>
+        <v>0.7515923566878981</v>
       </c>
       <c r="C93">
-        <v>0.4811046511627907</v>
+        <v>0.4840339531123686</v>
       </c>
       <c r="D93">
-        <v>0.6344086021505376</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E93">
-        <v>0.4857849196538937</v>
+        <v>0.4585908529048208</v>
       </c>
       <c r="F93">
-        <v>0.6336633663366337</v>
+        <v>0.6173913043478261</v>
       </c>
       <c r="G93">
-        <v>0.4510532837670384</v>
+        <v>0.4665012406947891</v>
       </c>
       <c r="H93">
-        <v>0.428</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8129496402877698</v>
+        <v>0.7911392405063291</v>
       </c>
       <c r="C94">
-        <v>0.4796714579055442</v>
+        <v>0.4826060727930827</v>
       </c>
       <c r="D94">
-        <v>0.6285714285714286</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="E94">
-        <v>0.4784747847478475</v>
+        <v>0.4668335419274093</v>
       </c>
       <c r="F94">
-        <v>0.6422018348623854</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="G94">
-        <v>0.446229913473424</v>
+        <v>0.4652338811630847</v>
       </c>
       <c r="H94">
-        <v>0.428</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7959183673469388</v>
+        <v>0.7904191616766467</v>
       </c>
       <c r="C95">
-        <v>0.4799756047977231</v>
+        <v>0.4808383233532934</v>
       </c>
       <c r="D95">
-        <v>0.6666666666666666</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="E95">
-        <v>0.473551637279597</v>
+        <v>0.4730077120822622</v>
       </c>
       <c r="F95">
-        <v>0.693069306930693</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="G95">
-        <v>0.4508816120906801</v>
+        <v>0.4607594936708861</v>
       </c>
       <c r="H95">
-        <v>0.422</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7960526315789473</v>
+        <v>0.8208092485549133</v>
       </c>
       <c r="C96">
-        <v>0.4802816901408451</v>
+        <v>0.4810201660735469</v>
       </c>
       <c r="D96">
-        <v>0.639344262295082</v>
+        <v>0.6187050359712231</v>
       </c>
       <c r="E96">
-        <v>0.4697732997481108</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="F96">
-        <v>0.6521739130434783</v>
+        <v>0.6372549019607843</v>
       </c>
       <c r="G96">
-        <v>0.456575682382134</v>
+        <v>0.4646840148698885</v>
       </c>
       <c r="H96">
-        <v>0.414</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.775</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C97">
-        <v>0.4789882493527186</v>
+        <v>0.4802979807880808</v>
       </c>
       <c r="D97">
-        <v>0.7033898305084746</v>
+        <v>0.6324786324786325</v>
       </c>
       <c r="E97">
-        <v>0.4755944931163955</v>
+        <v>0.4619354838709677</v>
       </c>
       <c r="F97">
-        <v>0.6460176991150443</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G97">
-        <v>0.4641089108910891</v>
+        <v>0.457002457002457</v>
       </c>
       <c r="H97">
-        <v>0.414</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7633136094674556</v>
+        <v>0.8125</v>
       </c>
       <c r="C98">
-        <v>0.4785615491009682</v>
+        <v>0.4807766990291262</v>
       </c>
       <c r="D98">
-        <v>0.6929824561403509</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="E98">
-        <v>0.4641509433962264</v>
+        <v>0.4618320610687023</v>
       </c>
       <c r="F98">
-        <v>0.5816326530612245</v>
+        <v>0.6396396396396397</v>
       </c>
       <c r="G98">
-        <v>0.4614427860696517</v>
+        <v>0.4539800995024876</v>
       </c>
       <c r="H98">
-        <v>0.426</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7724550898203593</v>
+        <v>0.8068965517241379</v>
       </c>
       <c r="C99">
-        <v>0.4783118405627198</v>
+        <v>0.4822695035460993</v>
       </c>
       <c r="D99">
-        <v>0.7280701754385965</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="E99">
-        <v>0.4738805970149254</v>
+        <v>0.4589127686472819</v>
       </c>
       <c r="F99">
-        <v>0.6355140186915887</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="G99">
-        <v>0.4683698296836983</v>
+        <v>0.4631710362047441</v>
       </c>
       <c r="H99">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7947019867549668</v>
+        <v>0.7784810126582279</v>
       </c>
       <c r="C100">
-        <v>0.477285907597139</v>
+        <v>0.4827064827064827</v>
       </c>
       <c r="D100">
-        <v>0.7326732673267327</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="E100">
-        <v>0.4662576687116564</v>
+        <v>0.4560301507537688</v>
       </c>
       <c r="F100">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="G100">
-        <v>0.4653705953827461</v>
+        <v>0.4632352941176471</v>
       </c>
       <c r="H100">
-        <v>0.442</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.8163265306122449</v>
+        <v>0.774390243902439</v>
       </c>
       <c r="C101">
-        <v>0.4776887871853547</v>
+        <v>0.4821562734785875</v>
       </c>
       <c r="D101">
-        <v>0.7156862745098039</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="E101">
-        <v>0.4675642594859241</v>
+        <v>0.4569288389513109</v>
       </c>
       <c r="F101">
-        <v>0.6826923076923077</v>
+        <v>0.6237623762376238</v>
       </c>
       <c r="G101">
-        <v>0.4597560975609756</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="H101">
-        <v>0.442</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
